--- a/output/instance_SMALL_scenario_2/dual_variables_iteration10.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration10.xlsx
@@ -541,10 +541,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9289515922725655</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1135811779477024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.52229291222474</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.08326320886843</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.78687427570547</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3646142990465595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2863349620812952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -909,10 +909,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.483705224093444</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4793634334009294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16410.16080023465</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1673976.03336882</v>
+        <v>8152040.169620151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration10.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration10.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0.2932984991222062</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.05177296069876198</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.069044140854728</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0372716770134485</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.4930952283364213</v>
       </c>
     </row>
     <row r="26">
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.2086382309069607</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -805,7 +805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.3163352131720827</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -813,15 +813,15 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>0.2580229554015484</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.313175975823809</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.1730937984422602</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.3670412353766736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.2962123418998799</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>4027805.565555137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8152040.169620151</v>
+        <v>3040539.913340235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
